--- a/biology/Zoologie/Damier_boréal/Damier_boréal.xlsx
+++ b/biology/Zoologie/Damier_boréal/Damier_boréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Damier_bor%C3%A9al</t>
+          <t>Damier_boréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphydryas iduna
 Le Damier boréal (Euphydryas iduna) est une espèce de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Nymphalinae et au genre Euphydryas.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Damier_bor%C3%A9al</t>
+          <t>Damier_boréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,46 +524,120 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euphydryas iduna Johan Wilhelm Dalman en 1816.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphydryas iduna Johan Wilhelm Dalman en 1816.
 Synonyme : Melitaea iduna (Dalman, 1816).
-Noms vernaculaires
-Le Damier Boréal se nomme en anglais Lapland Fritillary.
-Sous-espèces
-Euphydryas iduna iduna
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Damier_boréal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Damier Boréal se nomme en anglais Lapland Fritillary.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Damier_boréal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euphydryas iduna iduna
 Euphydryas iduna alferakyi Korshunov, 1996
 Euphydryas iduna inexpectata (Sheljuzhko, 1934)
 Euphydryas iduna sajana Higgins, 1950
-Euphydryas iduna semenovi Korshunov et Ivonin, 1996[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Damier_bor%C3%A9al</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Euphydryas iduna semenovi Korshunov et Ivonin, 1996.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Damier_boréal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon orange, marron et blanc en damiers séparés par les nervures et organisés en lignes de damiers orange et de damiers blancs.
 Le revers est orange orné de lignes de damiers clairs et de lignes de taches rondes blanches centrées d'un point noir.
@@ -561,83 +647,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Damier_bor%C3%A9al</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne à l'état de jeune chenille en groupe.
-Il vole en une seule génération de fin juin à fin juillet[2].
-Plantes hôtes
-Les plantes hôtes des chenilles sont Veronica alpina (Véronique des Alpes), Veronica fruticans, Vaccinium myrtillus (Myrtille commune) et des Plantago[1],[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Damier_bor%C3%A9al</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Europe et Asie arctiques et en altitude dans les monts Altaï au 50°N de 1 800 à 2 700 mètres et Ararat au 40°N à 4 000 mètres[1],[2].
-Biotope
-Il affectionne les landes et les tourbières.
-Protection
-Pas de statut de protection particulier.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Damier_bor%C3%A9al</t>
+          <t>Damier_boréal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,10 +668,194 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état de jeune chenille en groupe.
+Il vole en une seule génération de fin juin à fin juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Damier_boréal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles sont Veronica alpina (Véronique des Alpes), Veronica fruticans, Vaccinium myrtillus (Myrtille commune) et des Plantago,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Damier_boréal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Europe et Asie arctiques et en altitude dans les monts Altaï au 50°N de 1 800 à 2 700 mètres et Ararat au 40°N à 4 000 mètres,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Damier_boréal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les landes et les tourbières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Damier_boréal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Damier_boréal</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_bor%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
